--- a/greenlake_data_generator/Wetterdaten.xlsx
+++ b/greenlake_data_generator/Wetterdaten.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\GreenLake\greenlake_data_generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\GreenLake\greenlake_data_generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680E3788-A0B3-42C7-AA00-2D4C54AC4833}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F41230-203D-434E-9550-D5BC4D539D27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Monat</t>
   </si>
@@ -72,51 +72,12 @@
     <t>max Temp</t>
   </si>
   <si>
-    <t>Tageslicht (davon Sonnenstunden)</t>
-  </si>
-  <si>
     <t>Regentage</t>
   </si>
   <si>
     <t>Luftfeuchtigkeit</t>
   </si>
   <si>
-    <t>9 (1,5)</t>
-  </si>
-  <si>
-    <t>10 (2,8)</t>
-  </si>
-  <si>
-    <t>12 (4,2)</t>
-  </si>
-  <si>
-    <t>13,5 (6,3)</t>
-  </si>
-  <si>
-    <t>15 (6,9)</t>
-  </si>
-  <si>
-    <t>16 (7,4)</t>
-  </si>
-  <si>
-    <t>15,5 (7,2)</t>
-  </si>
-  <si>
-    <t>14,5 (6,8)</t>
-  </si>
-  <si>
-    <t>12,5 (5,3)</t>
-  </si>
-  <si>
-    <t>11 (3,6)</t>
-  </si>
-  <si>
-    <t>9,5 (1,8)</t>
-  </si>
-  <si>
-    <t>8,5 (1,2)</t>
-  </si>
-  <si>
     <t>Frühling</t>
   </si>
   <si>
@@ -145,6 +106,15 @@
   </si>
   <si>
     <t>Obergrenze Temp</t>
+  </si>
+  <si>
+    <t>Sonnenaufgang</t>
+  </si>
+  <si>
+    <t>Sonnenuntergang</t>
+  </si>
+  <si>
+    <t>Sonnenstunden</t>
   </si>
 </sst>
 </file>
@@ -249,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -265,6 +235,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -545,28 +517,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="97.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="97.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,22 +551,28 @@
         <v>14</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -602,23 +582,29 @@
       <c r="C2" s="3">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="G2" s="3">
         <v>12</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H2" s="3">
         <v>85</v>
       </c>
-      <c r="G2" s="3">
+      <c r="I2" s="3">
         <v>-15</v>
       </c>
-      <c r="H2" s="3">
+      <c r="J2" s="3">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -628,29 +614,35 @@
       <c r="C3" s="4">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4">
+      <c r="D3" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="E3" s="14">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="G3" s="4">
         <v>9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="H3" s="4">
         <v>82</v>
       </c>
-      <c r="G3" s="4">
+      <c r="I3" s="4">
         <v>-15</v>
       </c>
-      <c r="H3" s="4">
+      <c r="J3" s="4">
         <v>17</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -660,23 +652,29 @@
       <c r="C4" s="3">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.26041666666666669</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.76041666666666663</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10</v>
+      </c>
+      <c r="H4" s="3">
+        <v>79</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-5</v>
+      </c>
+      <c r="J4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="3">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3">
-        <v>79</v>
-      </c>
-      <c r="G4" s="3">
-        <v>-5</v>
-      </c>
-      <c r="H4" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
@@ -686,29 +684,35 @@
       <c r="C5" s="4">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="4">
+      <c r="D5" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="E5" s="14">
+        <v>0.25694444444444448</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0.81944444444444453</v>
+      </c>
+      <c r="G5" s="4">
         <v>10</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <v>74</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="4">
         <v>-5</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>25</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -718,23 +722,29 @@
       <c r="C6" s="3">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D6" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.84722222222222221</v>
+      </c>
+      <c r="G6" s="3">
         <v>12</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>71</v>
       </c>
-      <c r="G6" s="3">
+      <c r="I6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="J6" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -744,29 +754,35 @@
       <c r="C7" s="4">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="E7" s="14">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="F7" s="14">
+        <v>0.875</v>
+      </c>
+      <c r="G7" s="4">
+        <v>11</v>
+      </c>
+      <c r="H7" s="4">
+        <v>72</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>35</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4">
-        <v>11</v>
-      </c>
-      <c r="F7" s="4">
-        <v>72</v>
-      </c>
-      <c r="G7" s="4">
-        <v>5</v>
-      </c>
-      <c r="H7" s="4">
-        <v>35</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
@@ -776,23 +792,29 @@
       <c r="C8" s="3">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.86805555555555547</v>
+      </c>
+      <c r="G8" s="3">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>71</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -802,29 +824,35 @@
       <c r="C9" s="4">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="E9" s="14">
+        <v>0.24305555555555555</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="G9" s="4">
         <v>10</v>
       </c>
-      <c r="F9" s="4">
+      <c r="H9" s="4">
         <v>74</v>
       </c>
-      <c r="G9" s="4">
+      <c r="I9" s="4">
         <v>5</v>
       </c>
-      <c r="H9" s="4">
+      <c r="J9" s="4">
         <v>35</v>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -834,23 +862,29 @@
       <c r="C10" s="3">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.79861111111111116</v>
+      </c>
+      <c r="G10" s="3">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>79</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
@@ -860,23 +894,29 @@
       <c r="C11" s="4">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="E11" s="14">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="G11" s="4">
         <v>10</v>
       </c>
-      <c r="F11" s="4">
+      <c r="H11" s="4">
         <v>82</v>
       </c>
-      <c r="G11" s="4">
+      <c r="I11" s="4">
         <v>-5</v>
       </c>
-      <c r="H11" s="4">
+      <c r="J11" s="4">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
@@ -886,23 +926,29 @@
       <c r="C12" s="3">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="G12" s="3">
         <v>11</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>84</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>-10</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
         <v>12</v>
       </c>
@@ -912,19 +958,25 @@
       <c r="C13" s="4">
         <v>4</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0.3263888888888889</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0.68055555555555547</v>
+      </c>
+      <c r="G13" s="4">
         <v>12</v>
       </c>
-      <c r="F13" s="4">
+      <c r="H13" s="4">
         <v>85</v>
       </c>
-      <c r="G13" s="4">
+      <c r="I13" s="4">
         <v>-15</v>
       </c>
-      <c r="H13" s="4">
+      <c r="J13" s="4">
         <v>15</v>
       </c>
     </row>
